--- a/Project/SIMULATIONS/PROBLEM_specifications.xlsx
+++ b/Project/SIMULATIONS/PROBLEM_specifications.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
+    <workbookView xWindow="480" yWindow="180" windowWidth="27795" windowHeight="12525"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,30 +16,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="23">
   <si>
     <t>PROBLEM</t>
   </si>
   <si>
-    <t>MVN(0,I)</t>
-  </si>
-  <si>
-    <t>PROPOSAL</t>
-  </si>
-  <si>
     <t>SAMPLING</t>
   </si>
   <si>
     <t>MC</t>
   </si>
   <si>
-    <t>MVN(0,2I)</t>
-  </si>
-  <si>
-    <t>MVN(+-1SD,I)</t>
-  </si>
-  <si>
-    <t>MVN(+-2SD,I)</t>
+    <t>PARALLEL</t>
+  </si>
+  <si>
+    <t>TRUE CENTER</t>
+  </si>
+  <si>
+    <t>TRUE VAR</t>
+  </si>
+  <si>
+    <t>MVN_TRUE_MC_NOPAR</t>
+  </si>
+  <si>
+    <t>MVN_BIAS1_MC_NOPAR</t>
+  </si>
+  <si>
+    <t>MVN_BIAS2_MC_NOPAR</t>
+  </si>
+  <si>
+    <t>MVN_INFL1_MC_NOPAR</t>
+  </si>
+  <si>
+    <t>MVN_INFL2_MC_NOPAR</t>
+  </si>
+  <si>
+    <t>MVN_DEFL1_MC_NOPAR</t>
+  </si>
+  <si>
+    <t>MVN_DEFL2_MC_NOPAR</t>
+  </si>
+  <si>
+    <t>MVN_BIASINFL1_MC_NOPAR</t>
+  </si>
+  <si>
+    <t>TRUE DIST</t>
+  </si>
+  <si>
+    <t>MVN</t>
+  </si>
+  <si>
+    <t>PROP CENTER</t>
+  </si>
+  <si>
+    <t>PROP VAR</t>
+  </si>
+  <si>
+    <t>PROP DIST</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>NIT</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -378,86 +423,436 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="b">
-        <v>1</v>
+      <c r="B1" t="s">
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>5000</v>
+      </c>
+      <c r="L2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <v>5000</v>
+      </c>
+      <c r="L3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <v>5000</v>
+      </c>
+      <c r="L4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>5000</v>
+      </c>
+      <c r="L5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>5000</v>
+      </c>
+      <c r="L6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>5000</v>
+      </c>
+      <c r="L7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0.1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>5000</v>
+      </c>
+      <c r="L8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <v>5000</v>
+      </c>
+      <c r="L9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="K10">
+        <v>5000</v>
+      </c>
+      <c r="L10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11">
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <v>5000</v>
+      </c>
+      <c r="L11">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
